--- a/doctor_data.xlsx
+++ b/doctor_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Specialty</t>
   </si>
   <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t xml:space="preserve">Orthopedic Surgeon</t>
   </si>
   <si>
+    <t xml:space="preserve">Cold Cough</t>
+  </si>
+  <si>
     <t>William</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
     <t>Cardiologist</t>
   </si>
   <si>
+    <t>Fever</t>
+  </si>
+  <si>
     <t>Laurent</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
     <t>Hematologist</t>
   </si>
   <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
     <t>Ravi</t>
   </si>
   <si>
@@ -153,6 +165,9 @@
     <t>419-842-3000</t>
   </si>
   <si>
+    <t>Fracture</t>
+  </si>
+  <si>
     <t>Robert</t>
   </si>
   <si>
@@ -171,6 +186,9 @@
     <t>Internist</t>
   </si>
   <si>
+    <t>Headache</t>
+  </si>
+  <si>
     <t>Bin</t>
   </si>
   <si>
@@ -193,6 +211,9 @@
   </si>
   <si>
     <t>Pediatrician</t>
+  </si>
+  <si>
+    <t>ENT</t>
   </si>
   <si>
     <t>Warren</t>
@@ -1829,8 +1850,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2323,29 +2347,31 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" ht="42.75">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1">
         <v>68847</v>
@@ -2357,37 +2383,39 @@
         <v>-99.017150000000001</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" ht="28.5">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>32204</v>
@@ -2399,34 +2427,37 @@
         <v>-81.681600000000003</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="57">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>77090</v>
@@ -2438,33 +2469,36 @@
         <v>-95.447419999999994</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="28.5">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1">
         <v>43615</v>
@@ -2476,34 +2510,37 @@
         <v>-83.674474000000004</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="28.5">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1">
         <v>79415</v>
@@ -2515,33 +2552,36 @@
         <v>-101.89967</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="28.5">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1">
         <v>77441</v>
@@ -2553,33 +2593,36 @@
         <v>-95.920287000000002</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="28.5">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1">
         <v>85007</v>
@@ -2591,36 +2634,39 @@
         <v>-112.091161</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="57">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1">
         <v>73072</v>
@@ -2632,34 +2678,37 @@
         <v>-97.484694000000005</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="42.75">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I10" s="1">
         <v>63366</v>
@@ -2671,37 +2720,39 @@
         <v>-90.702669999999998</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" ht="28.5">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>32308</v>
@@ -2713,36 +2764,39 @@
         <v>-84.220315999999997</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1">
         <v>45701</v>
@@ -2754,34 +2808,37 @@
         <v>-82.078670000000002</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="28.5">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I13" s="1">
         <v>38555</v>
@@ -2793,35 +2850,37 @@
         <v>-84.984650000000002</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" ht="28.5">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I14" s="1">
         <v>55431</v>
@@ -2833,37 +2892,39 @@
         <v>-93.310777999999999</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" ht="42.75">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I15" s="1">
         <v>30060</v>
@@ -2875,37 +2936,39 @@
         <v>-84.541128</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" ht="28.5">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1">
         <v>77054</v>
@@ -2917,37 +2980,39 @@
         <v>-95.409521999999996</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" ht="28.5">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I17" s="1">
         <v>11021</v>
@@ -2959,34 +3024,37 @@
         <v>-73.725504999999998</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="28.5">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1">
         <v>27886</v>
@@ -2998,33 +3066,36 @@
         <v>-77.506034</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="28.5">
       <c r="A19" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I19" s="1">
         <v>36303</v>
@@ -3036,36 +3107,39 @@
         <v>-85.418301999999997</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="28.5">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I20" s="1">
         <v>37660</v>
@@ -3077,33 +3151,36 @@
         <v>-82.553601999999998</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="85.5">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I21" s="1">
         <v>21204</v>
@@ -3115,37 +3192,39 @@
         <v>-76.632844000000006</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" ht="28.5">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I22" s="1">
         <v>8051</v>
@@ -3157,33 +3236,36 @@
         <v>-75.183871999999994</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="28.5">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I23" s="1">
         <v>6105</v>
@@ -3195,34 +3277,37 @@
         <v>-72.700117000000006</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="28.5">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I24" s="1">
         <v>10965</v>
@@ -3234,34 +3319,37 @@
         <v>-74.012632999999994</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="28.5">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I25" s="1">
         <v>14424</v>
@@ -3273,34 +3361,37 @@
         <v>-77.315064000000007</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="28.5">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I26" s="1">
         <v>54729</v>
@@ -3312,33 +3403,36 @@
         <v>-91.408439999999999</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="28.5">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I27" s="1">
         <v>8094</v>
@@ -3350,36 +3444,39 @@
         <v>-74.973073999999997</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="42.75">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I28" s="1">
         <v>87505</v>
@@ -3391,37 +3488,39 @@
         <v>-105.878783</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" ht="28.5">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I29" s="1">
         <v>28374</v>
@@ -3433,36 +3532,39 @@
         <v>-79.460939999999994</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="28.5">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I30" s="1">
         <v>18951</v>
@@ -3474,36 +3576,39 @@
         <v>-75.323707999999996</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="57">
       <c r="A31" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1">
         <v>34110</v>
@@ -3515,37 +3620,39 @@
         <v>-81.789550000000006</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="N31" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" ht="28.5">
       <c r="A32" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I32" s="1">
         <v>45701</v>
@@ -3557,33 +3664,36 @@
         <v>-82.078670000000002</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="28.5">
       <c r="A33" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I33" s="1">
         <v>89128</v>
@@ -3595,34 +3705,37 @@
         <v>-115.265816</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="28.5">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I34" s="1">
         <v>27834</v>
@@ -3634,36 +3747,39 @@
         <v>-77.369091999999995</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="42.75">
       <c r="A35" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="I35" s="1">
         <v>84117</v>
@@ -3675,37 +3791,39 @@
         <v>-111.833806</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N35" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="36" ht="28.5">
       <c r="A36" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I36" s="1">
         <v>89141</v>
@@ -3717,33 +3835,36 @@
         <v>-115.211564</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="28.5">
       <c r="A37" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I37" s="1">
         <v>40291</v>
@@ -3755,33 +3876,36 @@
         <v>-85.574575999999993</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" ht="28.5">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I38" s="1">
         <v>8094</v>
@@ -3793,36 +3917,39 @@
         <v>-74.973073999999997</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="57">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I39" s="1">
         <v>37203</v>
@@ -3834,37 +3961,39 @@
         <v>-86.791326999999995</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" ht="42.75">
       <c r="A40" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I40" s="1">
         <v>22302</v>
@@ -3876,36 +4005,39 @@
         <v>-77.093618000000006</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="42.75">
       <c r="A41" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="I41" s="1">
         <v>22601</v>
@@ -3917,35 +4049,37 @@
         <v>-78.169274000000001</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N41" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="42" ht="57">
       <c r="A42" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I42" s="1">
         <v>61820</v>
@@ -3957,34 +4091,37 @@
         <v>-88.241658000000001</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="28.5">
       <c r="A43" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I43" s="1">
         <v>37055</v>
@@ -3996,34 +4133,37 @@
         <v>-87.430257999999995</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" ht="28.5">
       <c r="A44" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I44" s="1">
         <v>39402</v>
@@ -4035,36 +4175,39 @@
         <v>-89.412698000000006</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="57">
       <c r="A45" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I45" s="1">
         <v>77082</v>
@@ -4076,36 +4219,39 @@
         <v>-95.631890999999996</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="57">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I46" s="1">
         <v>37203</v>
@@ -4117,36 +4263,39 @@
         <v>-86.791326999999995</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="28.5">
       <c r="A47" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I47" s="1">
         <v>6105</v>
@@ -4158,36 +4307,39 @@
         <v>-72.700117000000006</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="28.5">
       <c r="A48" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="I48" s="1">
         <v>4011</v>
@@ -4199,37 +4351,39 @@
         <v>-69.972309999999993</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N48" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="49" ht="42.75">
       <c r="A49" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I49" s="1">
         <v>63301</v>
@@ -4241,37 +4395,39 @@
         <v>-90.451614000000006</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" ht="42.75">
+        <v>22</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" ht="28.5">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I50" s="1">
         <v>30060</v>
@@ -4283,35 +4439,37 @@
         <v>-84.541128</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" ht="28.5">
       <c r="A51" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I51" s="1">
         <v>37664</v>
@@ -4323,34 +4481,37 @@
         <v>-82.509546</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="42.75">
       <c r="A52" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I52" s="1">
         <v>46804</v>
@@ -4362,35 +4523,37 @@
         <v>-85.231907000000007</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N52" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="53" ht="42.75">
       <c r="A53" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="I53" s="1">
         <v>93105</v>
@@ -4402,37 +4565,39 @@
         <v>-119.77258</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N53" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="54" ht="57">
       <c r="A54" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I54" s="1">
         <v>28105</v>
@@ -4444,33 +4609,36 @@
         <v>-80.708955000000003</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" ht="28.5">
       <c r="A55" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I55" s="1">
         <v>89074</v>
@@ -4482,33 +4650,36 @@
         <v>-115.073868</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" ht="85.5">
+        <v>74</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" ht="28.5">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I56" s="1">
         <v>46804</v>
@@ -4520,37 +4691,39 @@
         <v>-85.231907000000007</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" ht="28.5">
       <c r="A57" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I57" s="1">
         <v>39232</v>
@@ -4562,34 +4735,37 @@
         <v>-90.096953999999997</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="28.5">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I58" s="1">
         <v>37055</v>
@@ -4601,36 +4777,39 @@
         <v>-87.430257999999995</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="42.75">
       <c r="A59" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="I59" s="1">
         <v>2131</v>
@@ -4642,36 +4821,39 @@
         <v>-71.121772000000007</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="60" ht="42.75">
       <c r="A60" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I60" s="1">
         <v>38120</v>
@@ -4683,37 +4865,39 @@
         <v>-89.842308000000003</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="61" ht="42.75">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1">
         <v>33401</v>
@@ -4725,34 +4909,37 @@
         <v>-80.069451000000001</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" ht="28.5">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I62" s="1">
         <v>27203</v>
@@ -4764,36 +4951,39 @@
         <v>-79.77037</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="57">
       <c r="A63" s="1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I63" s="1">
         <v>38120</v>
@@ -4805,34 +4995,37 @@
         <v>-89.842308000000003</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="28.5">
       <c r="A64" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I64" s="1">
         <v>38134</v>
@@ -4844,36 +5037,39 @@
         <v>-89.862942000000004</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I65" s="1">
         <v>44236</v>
@@ -4885,33 +5081,36 @@
         <v>-81.462622999999994</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="I66" s="1">
         <v>22601</v>
@@ -4923,34 +5122,37 @@
         <v>-78.169274000000001</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I67" s="1">
         <v>37055</v>
@@ -4962,37 +5164,39 @@
         <v>-87.430257999999995</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="N67" s="1"/>
+        <v>427</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I68" s="1">
         <v>11021</v>
@@ -5004,34 +5208,37 @@
         <v>-73.725504999999998</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="I69" s="1">
         <v>52101</v>
@@ -5043,34 +5250,36 @@
         <v>-91.779261000000005</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I70" s="1">
         <v>7055</v>
@@ -5082,37 +5291,39 @@
         <v>-74.128157000000002</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N70" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I71" s="1">
         <v>19046</v>
@@ -5124,34 +5335,37 @@
         <v>-75.107849999999999</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I72" s="1">
         <v>54729</v>
@@ -5163,36 +5377,39 @@
         <v>-91.408439999999999</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I73" s="1">
         <v>32209</v>
@@ -5204,36 +5421,39 @@
         <v>-81.697102000000001</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I74" s="1">
         <v>60523</v>
@@ -5245,37 +5465,39 @@
         <v>-87.952010999999999</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N74" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="I75" s="1">
         <v>3801</v>
@@ -5287,36 +5509,39 @@
         <v>-70.799836999999997</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I76" s="1">
         <v>6108</v>
@@ -5328,34 +5553,37 @@
         <v>-72.621943999999999</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I77" s="1">
         <v>33021</v>
@@ -5367,35 +5595,37 @@
         <v>-80.189988</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="N77" s="1"/>
+        <v>483</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I78" s="1">
         <v>37421</v>
@@ -5407,37 +5637,39 @@
         <v>-85.155118000000002</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N78" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I79" s="1">
         <v>37203</v>
@@ -5449,36 +5681,39 @@
         <v>-86.791326999999995</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="I80" s="1">
         <v>3801</v>
@@ -5490,34 +5725,37 @@
         <v>-70.799836999999997</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I81" s="1">
         <v>10965</v>
@@ -5529,36 +5767,39 @@
         <v>-74.012632999999994</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I82" s="1">
         <v>30309</v>
@@ -5570,33 +5811,36 @@
         <v>-84.388283999999999</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I83" s="1">
         <v>13031</v>
@@ -5608,33 +5852,36 @@
         <v>-76.296796000000001</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I84" s="1">
         <v>13210</v>
@@ -5646,35 +5893,37 @@
         <v>-76.126225000000005</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="N84" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="I85" s="1">
         <v>70808</v>
@@ -5686,36 +5935,39 @@
         <v>-91.144193000000001</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I86" s="1">
         <v>76201</v>
@@ -5727,36 +5979,39 @@
         <v>-97.149936999999994</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I87" s="1">
         <v>77429</v>
@@ -5768,37 +6023,39 @@
         <v>-95.654758999999999</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="N87" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I88" s="1">
         <v>63128</v>
@@ -5810,37 +6067,39 @@
         <v>-90.380629999999996</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N88" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I89" s="1">
         <v>40422</v>
@@ -5852,34 +6111,36 @@
         <v>-84.809398000000002</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N89" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I90" s="1">
         <v>7055</v>
@@ -5891,37 +6152,39 @@
         <v>-74.128157000000002</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N90" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I91" s="1">
         <v>77054</v>
@@ -5933,34 +6196,37 @@
         <v>-95.409521999999996</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I92" s="1">
         <v>55021</v>
@@ -5972,37 +6238,39 @@
         <v>-93.292709000000002</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N92" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="I93" s="1">
         <v>25302</v>
@@ -6014,33 +6282,36 @@
         <v>-81.583267000000006</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="I94" s="1">
         <v>98944</v>
@@ -6052,36 +6323,39 @@
         <v>-120.017278</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I95" s="1">
         <v>28374</v>
@@ -6093,34 +6367,37 @@
         <v>-79.460939999999994</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I96" s="1">
         <v>65109</v>
@@ -6132,37 +6409,39 @@
         <v>-92.283091999999996</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N96" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I97" s="1">
         <v>45701</v>
@@ -6174,36 +6453,39 @@
         <v>-82.078670000000002</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I98" s="1">
         <v>37203</v>
@@ -6215,36 +6497,39 @@
         <v>-86.791326999999995</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I99" s="1">
         <v>45373</v>
@@ -6256,37 +6541,39 @@
         <v>-84.182513999999998</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="N99" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I100" s="1">
         <v>30106</v>
@@ -6298,35 +6585,37 @@
         <v>-84.624750000000006</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N100" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I101" s="1">
         <v>27834</v>
@@ -6338,10 +6627,21 @@
         <v>-77.369091999999995</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="N103" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/doctor_data.xlsx
+++ b/doctor_data.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="M">Sheet1!$L:$L</definedName>
+  </definedNames>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,1400 +24,1381 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="455">
   <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiebe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3500 Central Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308-865-2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orthopedic Surgeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Cough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1824 King Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">904-388-1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gressot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17323 Red Oak Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chennai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">281-440-5006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ravi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adusumilli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2940 N Mccord Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Delhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419-842-3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisbee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">808 Joliet Ave Unit 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">806-761-0540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7629 Tiki Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaipur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">281-346-0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pediatrician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuipers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1205 S 7th Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyderabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">602-344-6600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huebert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3400 W Tecumseh Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolkata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">405-793-2229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gynecologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difilippo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9323 Phoenix Village Pkwy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">636-561-5030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thacker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2770 Capital Medical Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">850-878-8235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 Hospital Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">740-592-4491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 Cleveland St 310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">931-787-1232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surgeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8100 Northland Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">952-831-8742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Doctors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 Tower Rd Ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770-427-5717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grunert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7900 Fannin St Ste 4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston Fertility Specialists Pllc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">713-512-7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goldberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010 Northern Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">516-390-2430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Hospital Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-641-7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210 Westside Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334-793-5074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wendy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oberdick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105 W Stone Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 1f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423-230-2420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7505 Osler Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410-337-1783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1107 Mantua Pike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">856-464-9000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optometrist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soucier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114 Woodland St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">860-714-4820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169 N Middletown Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845-735-5666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophthalmologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">335 Parrish St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">585-393-2845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timothy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">716 W Columbia St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715-726-1963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Houten-Sauter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220 Pine St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">856-629-7436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1631 Hospital Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">505-424-0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shepherd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293 Olmsted Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-295-3344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nephrologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99 N West End Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215-538-0202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1660 Medical Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239-596-1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstetrician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geetha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjeevaram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trippi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3100 N Tenaya Way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702-671-6845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fogarty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1850 W Arlington Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-752-6101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulmonologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999 E Murray Holladay Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801-274-9062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podiatrist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanveer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10620 Southern Highlands Pkwy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 110-507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702-921-6829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allgeier III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6425 Bardstown Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502-762-0498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nylander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345 23rd Ave N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">615-329-9082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kauffman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3450 N Beauregard St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-820-7000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Practice Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650 Cedar Creek Grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540-667-3338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 W University Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217-366-1255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perrigin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219 Church St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">615-446-0522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lynn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McMahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1420 S 28th Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">601-264-3937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bao Quoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12121 Richmond Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">281-589-0156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011 Murphy Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">615-284-2929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 Asylum Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 4310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">860-247-2137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocrinologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathaniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121 Medical Center Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 2550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207-373-1707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linsenmeyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 1st Capitol Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">636-946-7050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falconer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1728 N Eastman Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423-230-6532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otolaryngologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detommaso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7601 W Jefferson Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260-436-8686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schlegel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222 W Pueblo St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">805-682-1394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kopczynski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1450 Matthews Township Pkwy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">704-321-1077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1701n Green Valley Pkwy 5c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702-541-8240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hensarling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4436 Mangum Dr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">601-982-7363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheumatologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127 Crestview Park Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">615-446-5121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rowland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200 Centre St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department Of Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">617-363-8293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geriatric Medicine Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6286 Briarcrest Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901-641-3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500 N Dixie Hwy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">561-833-4022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic Surgeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402 S Cox St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336-625-4359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 Humphreys Center Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901-752-6131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ungab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2851 Stage Center Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901-388-7711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anwar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5700 Darrow Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330-656-5911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O'Donnell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104 Selma Dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540-678-2800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leslie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooperman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">516-390-2420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glenn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901 Montgomery St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">563-382-2911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350 Boulevard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">973-365-4300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roesing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500 Old York Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite #108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215-481-2725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24509 County Highway I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715-723-9138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghaith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">655 W 8th St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ufjp Rheumatology Dept.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">904-383-1005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasirrudin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2425 W 22nd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">630-954-0054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 Borthwick Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 200 East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-501-5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">893 Main St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trevor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swerdlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3501 Johnson St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">954-987-2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6015 Shallowford Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423-893-3333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329 21st Ave N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">615-329-9333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstetrician / Gynecologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haskell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603-436-1773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spinak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275 Collier Rd Nw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404-355-3161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infectious Disease Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laclair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436 Hinsdale Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315-488-0996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wayne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961 Canal St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315-478-1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physiatrist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roppolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5131 Odonovan Dr Fl 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225-767-4893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estorque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2625 Scripture St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">940-320-0505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lin-Lin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21216 Northwest Fwy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">832-403-2219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematologist / Oncologist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nettesheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4305 Butler Hill Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314-849-9009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333 S 3rd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">859-236-8730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yitzhaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gullett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obgyn Medical Center Associates, Pllc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">713-512-7500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneiders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 State Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">507-333-3200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naegele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">830 Pennsylvania Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304-344-8368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">803 E Lincoln Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">509-837-1550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoehn-Saric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1241 W Stadium Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">573-556-7717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morgan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2201 Murphy Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">615-342-6880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">998 S Dorset Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite 104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">937-332-8843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3672 Marathon Cir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770-944-3303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duncan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fagundus</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Wiebe</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>3500 Central Ave</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>308-865-2512</t>
+  </si>
+  <si>
+    <t>Orthopedic Surgeon</t>
+  </si>
+  <si>
+    <t>Cold Cough</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Pilcher</t>
+  </si>
+  <si>
+    <t>1824 King Street</t>
+  </si>
+  <si>
+    <t>Suite 300</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>904-388-1820</t>
+  </si>
+  <si>
+    <t>Cardiologist</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>Gressot</t>
+  </si>
+  <si>
+    <t>17323 Red Oak Dr</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>281-440-5006</t>
+  </si>
+  <si>
+    <t>Hematologist</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Adusumilli</t>
+  </si>
+  <si>
+    <t>2940 N Mccord Rd</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>419-842-3000</t>
+  </si>
+  <si>
+    <t>Fracture</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Bisbee</t>
+  </si>
+  <si>
+    <t>808 Joliet Ave Unit 120</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>806-761-0540</t>
+  </si>
+  <si>
+    <t>Internist</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Sung</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>7629 Tiki Dr</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>281-346-0018</t>
+  </si>
+  <si>
+    <t>Pediatrician</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Kuipers</t>
+  </si>
+  <si>
+    <t>1205 S 7th Ave</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>602-344-6600</t>
+  </si>
+  <si>
+    <t>Family Doctor</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Huebert</t>
+  </si>
+  <si>
+    <t>3400 W Tecumseh Rd</t>
+  </si>
+  <si>
+    <t>Suite 205</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>405-793-2229</t>
+  </si>
+  <si>
+    <t>Gynecologist</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Difilippo</t>
+  </si>
+  <si>
+    <t>9323 Phoenix Village Pkwy</t>
+  </si>
+  <si>
+    <t>636-561-5030</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Thacker</t>
+  </si>
+  <si>
+    <t>2770 Capital Medical Blvd</t>
+  </si>
+  <si>
+    <t>Suite 200</t>
+  </si>
+  <si>
+    <t>850-878-8235</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Rothstein</t>
+  </si>
+  <si>
+    <t>75 Hospital Dr</t>
+  </si>
+  <si>
+    <t>Suite 350</t>
+  </si>
+  <si>
+    <t>740-592-4491</t>
+  </si>
+  <si>
+    <t>Elmer</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>49 Cleveland St 310</t>
+  </si>
+  <si>
+    <t>931-787-1232</t>
+  </si>
+  <si>
+    <t>Surgeon</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Markman</t>
+  </si>
+  <si>
+    <t>8100 Northland Dr</t>
+  </si>
+  <si>
+    <t>952-831-8742</t>
+  </si>
+  <si>
+    <t>Other Doctors</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Dysart</t>
+  </si>
+  <si>
+    <t>300 Tower Rd Ne</t>
+  </si>
+  <si>
+    <t>770-427-5717</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Grunert</t>
+  </si>
+  <si>
+    <t>7900 Fannin St Ste 4000</t>
+  </si>
+  <si>
+    <t>Houston Fertility Specialists Pllc</t>
+  </si>
+  <si>
+    <t>713-512-7900</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Goldberg</t>
+  </si>
+  <si>
+    <t>1010 Northern Blvd</t>
+  </si>
+  <si>
+    <t>Suite 110</t>
+  </si>
+  <si>
+    <t>516-390-2430</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Dubose</t>
+  </si>
+  <si>
+    <t>111 Hospital Dr</t>
+  </si>
+  <si>
+    <t>252-641-7700</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Coe</t>
+  </si>
+  <si>
+    <t>210 Westside Dr</t>
+  </si>
+  <si>
+    <t>334-793-5074</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Oberdick</t>
+  </si>
+  <si>
+    <t>105 W Stone Dr</t>
+  </si>
+  <si>
+    <t>Suite 1f</t>
+  </si>
+  <si>
+    <t>423-230-2420</t>
+  </si>
+  <si>
+    <t>Rawn</t>
+  </si>
+  <si>
+    <t>Salenger</t>
+  </si>
+  <si>
+    <t>7505 Osler Dr</t>
+  </si>
+  <si>
+    <t>410-337-1783</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>1107 Mantua Pike</t>
+  </si>
+  <si>
+    <t>Suite 722</t>
+  </si>
+  <si>
+    <t>856-464-9000</t>
+  </si>
+  <si>
+    <t>Optometrist</t>
+  </si>
+  <si>
+    <t>Soucier</t>
+  </si>
+  <si>
+    <t>114 Woodland St</t>
+  </si>
+  <si>
+    <t>860-714-4820</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>169 N Middletown Rd</t>
+  </si>
+  <si>
+    <t>845-735-5666</t>
+  </si>
+  <si>
+    <t>Ophthalmologist</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Potts</t>
+  </si>
+  <si>
+    <t>335 Parrish St</t>
+  </si>
+  <si>
+    <t>585-393-2845</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Wolter</t>
+  </si>
+  <si>
+    <t>716 W Columbia St</t>
+  </si>
+  <si>
+    <t>715-726-1963</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Van Houten-Sauter</t>
+  </si>
+  <si>
+    <t>220 Pine St</t>
+  </si>
+  <si>
+    <t>856-629-7436</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>1631 Hospital Dr</t>
+  </si>
+  <si>
+    <t>505-424-0200</t>
+  </si>
+  <si>
+    <t>Shepherd</t>
+  </si>
+  <si>
+    <t>293 Olmsted Blvd</t>
+  </si>
+  <si>
+    <t>Suite 7</t>
+  </si>
+  <si>
+    <t>910-295-3344</t>
+  </si>
+  <si>
+    <t>Nephrologist</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>Vasta</t>
+  </si>
+  <si>
+    <t>99 N West End Blvd</t>
+  </si>
+  <si>
+    <t>Suite 102</t>
+  </si>
+  <si>
+    <t>215-538-0202</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>1660 Medical Blvd</t>
+  </si>
+  <si>
+    <t>Suite 302</t>
+  </si>
+  <si>
+    <t>239-596-1995</t>
+  </si>
+  <si>
+    <t>Obstetrician</t>
+  </si>
+  <si>
+    <t>Geetha</t>
+  </si>
+  <si>
+    <t>Conjeevaram</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Trippi</t>
+  </si>
+  <si>
+    <t>3100 N Tenaya Way</t>
+  </si>
+  <si>
+    <t>702-671-6845</t>
+  </si>
+  <si>
+    <t>Emergency Doctor</t>
+  </si>
+  <si>
+    <t>Fogarty</t>
+  </si>
+  <si>
+    <t>1850 W Arlington Blvd</t>
+  </si>
+  <si>
+    <t>252-752-6101</t>
+  </si>
+  <si>
+    <t>Pulmonologist</t>
+  </si>
+  <si>
+    <t>Spence</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>999 E Murray Holladay Rd</t>
+  </si>
+  <si>
+    <t>801-274-9062</t>
+  </si>
+  <si>
+    <t>Podiatrist</t>
+  </si>
+  <si>
+    <t>Tanveer</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>10620 Southern Highlands Pkwy</t>
+  </si>
+  <si>
+    <t>Suite 110-507</t>
+  </si>
+  <si>
+    <t>702-921-6829</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Allgeier III</t>
+  </si>
+  <si>
+    <t>6425 Bardstown Rd</t>
+  </si>
+  <si>
+    <t>502-762-0498</t>
+  </si>
+  <si>
+    <t>Lowry</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Nylander</t>
+  </si>
+  <si>
+    <t>345 23rd Ave N</t>
+  </si>
+  <si>
+    <t>Suite 209</t>
+  </si>
+  <si>
+    <t>615-329-9082</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Kauffman</t>
+  </si>
+  <si>
+    <t>3450 N Beauregard St</t>
+  </si>
+  <si>
+    <t>Suite 1</t>
+  </si>
+  <si>
+    <t>703-820-7000</t>
+  </si>
+  <si>
+    <t>General Practice Doctor</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>650 Cedar Creek Grade</t>
+  </si>
+  <si>
+    <t>Suite 108</t>
+  </si>
+  <si>
+    <t>540-667-3338</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>Helfer</t>
+  </si>
+  <si>
+    <t>101 W University Ave</t>
+  </si>
+  <si>
+    <t>217-366-1255</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Perrigin</t>
+  </si>
+  <si>
+    <t>219 Church St</t>
+  </si>
+  <si>
+    <t>615-446-0522</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>McMahan</t>
+  </si>
+  <si>
+    <t>1420 S 28th Ave</t>
+  </si>
+  <si>
+    <t>601-264-3937</t>
+  </si>
+  <si>
+    <t>Bao Quoc</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>12121 Richmond Ave</t>
+  </si>
+  <si>
+    <t>Suite 315</t>
+  </si>
+  <si>
+    <t>281-589-0156</t>
+  </si>
+  <si>
+    <t>Presley</t>
+  </si>
+  <si>
+    <t>2011 Murphy Ave</t>
+  </si>
+  <si>
+    <t>615-284-2929</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>1000 Asylum Ave</t>
+  </si>
+  <si>
+    <t>Suite 4310</t>
+  </si>
+  <si>
+    <t>860-247-2137</t>
+  </si>
+  <si>
+    <t>Endocrinologist</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>121 Medical Center Dr</t>
+  </si>
+  <si>
+    <t>Suite 2550</t>
+  </si>
+  <si>
+    <t>207-373-1707</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Linsenmeyer</t>
+  </si>
+  <si>
+    <t>400 1st Capitol Dr</t>
+  </si>
+  <si>
+    <t>Suite 100</t>
+  </si>
+  <si>
+    <t>636-946-7050</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Randall</t>
+  </si>
+  <si>
+    <t>Falconer</t>
+  </si>
+  <si>
+    <t>1728 N Eastman Rd</t>
+  </si>
+  <si>
+    <t>423-230-6532</t>
+  </si>
+  <si>
+    <t>Otolaryngologist</t>
+  </si>
+  <si>
+    <t>Dominick</t>
+  </si>
+  <si>
+    <t>Detommaso</t>
+  </si>
+  <si>
+    <t>7601 W Jefferson Blvd</t>
+  </si>
+  <si>
+    <t>260-436-8686</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Schlegel</t>
+  </si>
+  <si>
+    <t>222 W Pueblo St</t>
+  </si>
+  <si>
+    <t>805-682-1394</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Kopczynski</t>
+  </si>
+  <si>
+    <t>1450 Matthews Township Pkwy</t>
+  </si>
+  <si>
+    <t>704-321-1077</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>1701n Green Valley Pkwy 5c</t>
+  </si>
+  <si>
+    <t>702-541-8240</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Hensarling</t>
+  </si>
+  <si>
+    <t>4436 Mangum Dr.</t>
+  </si>
+  <si>
+    <t>Suite A</t>
+  </si>
+  <si>
+    <t>601-982-7363</t>
+  </si>
+  <si>
+    <t>Rheumatologist</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>127 Crestview Park Dr</t>
+  </si>
+  <si>
+    <t>615-446-5121</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Rowland</t>
+  </si>
+  <si>
+    <t>1200 Centre St</t>
+  </si>
+  <si>
+    <t>Department Of Medicine</t>
+  </si>
+  <si>
+    <t>617-363-8293</t>
+  </si>
+  <si>
+    <t>Geriatric Medicine Doctor</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>6286 Briarcrest Ave</t>
+  </si>
+  <si>
+    <t>901-641-3000</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>1500 N Dixie Hwy</t>
+  </si>
+  <si>
+    <t>Suite 304</t>
+  </si>
+  <si>
+    <t>561-833-4022</t>
+  </si>
+  <si>
+    <t>Plastic Surgeon</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>402 S Cox St</t>
+  </si>
+  <si>
+    <t>336-625-4359</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>80 Humphreys Center Dr</t>
+  </si>
+  <si>
+    <t>Suite 330</t>
+  </si>
+  <si>
+    <t>901-752-6131</t>
+  </si>
+  <si>
+    <t>Oncologist</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Ungab</t>
+  </si>
+  <si>
+    <t>2851 Stage Center Dr</t>
+  </si>
+  <si>
+    <t>901-388-7711</t>
+  </si>
+  <si>
+    <t>Anwar</t>
+  </si>
+  <si>
+    <t>Hamami</t>
+  </si>
+  <si>
+    <t>5700 Darrow Rd</t>
+  </si>
+  <si>
+    <t>Suite 106</t>
+  </si>
+  <si>
+    <t>330-656-5911</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>O'Donnell</t>
+  </si>
+  <si>
+    <t>104 Selma Dr</t>
+  </si>
+  <si>
+    <t>540-678-2800</t>
+  </si>
+  <si>
+    <t>Venk</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Pathologist</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Cooperman</t>
+  </si>
+  <si>
+    <t>516-390-2420</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>901 Montgomery St</t>
+  </si>
+  <si>
+    <t>563-382-2911</t>
+  </si>
+  <si>
+    <t>Nena</t>
+  </si>
+  <si>
+    <t>Sy</t>
+  </si>
+  <si>
+    <t>350 Boulevard</t>
+  </si>
+  <si>
+    <t>973-365-4300</t>
+  </si>
+  <si>
+    <t>Tracey</t>
+  </si>
+  <si>
+    <t>Roesing</t>
+  </si>
+  <si>
+    <t>500 Old York Rd</t>
+  </si>
+  <si>
+    <t>Suite #108</t>
+  </si>
+  <si>
+    <t>215-481-2725</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>24509 County Highway I</t>
+  </si>
+  <si>
+    <t>715-723-9138</t>
+  </si>
+  <si>
+    <t>Ghaith</t>
+  </si>
+  <si>
+    <t>Mitri</t>
+  </si>
+  <si>
+    <t>655 W 8th St</t>
+  </si>
+  <si>
+    <t>Ufjp Rheumatology Dept.</t>
+  </si>
+  <si>
+    <t>904-383-1005</t>
+  </si>
+  <si>
+    <t>Nasirrudin</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>2425 W 22nd St</t>
+  </si>
+  <si>
+    <t>630-954-0054</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>155 Borthwick Ave</t>
+  </si>
+  <si>
+    <t>Suite 200 East</t>
+  </si>
+  <si>
+    <t>603-501-5000</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Diez</t>
+  </si>
+  <si>
+    <t>893 Main St</t>
+  </si>
+  <si>
+    <t>Suite 202</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Swerdlow</t>
+  </si>
+  <si>
+    <t>3501 Johnson St</t>
+  </si>
+  <si>
+    <t>954-987-2000</t>
+  </si>
+  <si>
+    <t>Radiologist</t>
+  </si>
+  <si>
+    <t>Tipps</t>
+  </si>
+  <si>
+    <t>6015 Shallowford Road</t>
+  </si>
+  <si>
+    <t>423-893-3333</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>329 21st Ave N</t>
+  </si>
+  <si>
+    <t>Suite 4</t>
+  </si>
+  <si>
+    <t>615-329-9333</t>
+  </si>
+  <si>
+    <t>Obstetrician / Gynecologist</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Haskell</t>
+  </si>
+  <si>
+    <t>603-436-1773</t>
+  </si>
+  <si>
+    <t>Spinak</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>275 Collier Rd Nw</t>
+  </si>
+  <si>
+    <t>Suite 450</t>
+  </si>
+  <si>
+    <t>404-355-3161</t>
+  </si>
+  <si>
+    <t>Infectious Disease Doctor</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Laclair</t>
+  </si>
+  <si>
+    <t>436 Hinsdale Rd</t>
+  </si>
+  <si>
+    <t>315-488-0996</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>961 Canal St</t>
+  </si>
+  <si>
+    <t>315-478-1977</t>
+  </si>
+  <si>
+    <t>Physiatrist</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Roppolo</t>
+  </si>
+  <si>
+    <t>5131 Odonovan Dr Fl 1</t>
+  </si>
+  <si>
+    <t>225-767-4893</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Estorque</t>
+  </si>
+  <si>
+    <t>2625 Scripture St</t>
+  </si>
+  <si>
+    <t>Suite 103</t>
+  </si>
+  <si>
+    <t>940-320-0505</t>
+  </si>
+  <si>
+    <t>Lin-Lin</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>21216 Northwest Fwy</t>
+  </si>
+  <si>
+    <t>Suite 230</t>
+  </si>
+  <si>
+    <t>832-403-2219</t>
+  </si>
+  <si>
+    <t>Hematologist / Oncologist</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Nettesheim</t>
+  </si>
+  <si>
+    <t>4305 Butler Hill Rd</t>
+  </si>
+  <si>
+    <t>Suite B</t>
+  </si>
+  <si>
+    <t>314-849-9009</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Lukins</t>
+  </si>
+  <si>
+    <t>333 S 3rd St</t>
+  </si>
+  <si>
+    <t>859-236-8730</t>
+  </si>
+  <si>
+    <t>Izik</t>
+  </si>
+  <si>
+    <t>Yitzhaki</t>
+  </si>
+  <si>
+    <t>Gullett</t>
+  </si>
+  <si>
+    <t>Obgyn Medical Center Associates, Pllc</t>
+  </si>
+  <si>
+    <t>713-512-7500</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Sneiders</t>
+  </si>
+  <si>
+    <t>300 State Ave</t>
+  </si>
+  <si>
+    <t>507-333-3200</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Naegele</t>
+  </si>
+  <si>
+    <t>830 Pennsylvania Ave</t>
+  </si>
+  <si>
+    <t>304-344-8368</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>803 E Lincoln Ave</t>
+  </si>
+  <si>
+    <t>509-837-1550</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Hoehn-Saric</t>
+  </si>
+  <si>
+    <t>Ferris</t>
+  </si>
+  <si>
+    <t>1241 W Stadium Blvd</t>
+  </si>
+  <si>
+    <t>573-556-7717</t>
+  </si>
+  <si>
+    <t>Ortman</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>2201 Murphy Ave</t>
+  </si>
+  <si>
+    <t>Suite 407</t>
+  </si>
+  <si>
+    <t>615-342-6880</t>
+  </si>
+  <si>
+    <t>Hoover</t>
+  </si>
+  <si>
+    <t>998 S Dorset Rd</t>
+  </si>
+  <si>
+    <t>Suite 104</t>
+  </si>
+  <si>
+    <t>937-332-8843</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>3672 Marathon Cir</t>
+  </si>
+  <si>
+    <t>770-944-3303</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Fagundus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1427,7 +1410,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1435,83 +1418,341 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="31.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="14" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="1" customWidth="1"/>
+    <col min="14" max="1023" width="9.140625" style="1"/>
+    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,10 +1790,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,14 +1812,14 @@
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>68847</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>40.74981</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>-99.01715</v>
+      <c r="I2" s="1">
+        <v>40.749809999999997</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-99.017150000000001</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
@@ -1587,10 +1828,10 @@
         <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1612,14 +1853,14 @@
       <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>32204</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>30.314597</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>-81.6816</v>
+      <c r="I3" s="1">
+        <v>30.314596999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-81.681600000000003</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -1628,10 +1869,10 @@
         <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1650,14 +1891,14 @@
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>77090</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>30.001752</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>-95.44742</v>
+      <c r="J4" s="1">
+        <v>-95.447419999999994</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>36</v>
@@ -1669,7 +1910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1688,14 +1929,14 @@
       <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>43615</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>41.650256</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>-83.674474</v>
+      <c r="I5" s="1">
+        <v>41.650255999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-83.674474000000004</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>44</v>
@@ -1704,10 +1945,10 @@
         <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1726,13 +1967,13 @@
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>79415</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>33.680388</v>
-      </c>
-      <c r="J6" s="1" t="n">
+      <c r="I6" s="1">
+        <v>33.680388000000001</v>
+      </c>
+      <c r="J6" s="1">
         <v>-101.89967</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1742,10 +1983,10 @@
         <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1764,14 +2005,14 @@
       <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>77441</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>29.681924</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>-95.920287</v>
+      <c r="I7" s="1">
+        <v>29.681923999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-95.920287000000002</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>59</v>
@@ -1780,10 +2021,10 @@
         <v>60</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1802,13 +2043,13 @@
       <c r="G8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>85007</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>33.445879</v>
-      </c>
-      <c r="J8" s="1" t="n">
+      <c r="I8" s="1">
+        <v>33.445878999999998</v>
+      </c>
+      <c r="J8" s="1">
         <v>-112.091161</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1818,10 +2059,10 @@
         <v>68</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -1843,14 +2084,14 @@
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>73072</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>35.221503</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>-97.484694</v>
+      <c r="I9" s="1">
+        <v>35.221502999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-97.484694000000005</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>74</v>
@@ -1859,10 +2100,10 @@
         <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -1881,14 +2122,14 @@
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>63366</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>38.853499</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>-90.70267</v>
+      <c r="I10" s="1">
+        <v>38.853498999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-90.702669999999998</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>79</v>
@@ -1900,7 +2141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -1922,14 +2163,14 @@
       <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>32308</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>30.472782</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>-84.220316</v>
+      <c r="I11" s="1">
+        <v>30.472781999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-84.220315999999997</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>84</v>
@@ -1938,10 +2179,10 @@
         <v>51</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -1963,14 +2204,14 @@
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>45701</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>39.302498</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>-82.07867</v>
+      <c r="J12" s="1">
+        <v>-82.078670000000002</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>89</v>
@@ -1979,10 +2220,10 @@
         <v>68</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -2001,14 +2242,14 @@
       <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>38555</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>35.841732</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>-84.98465</v>
+      <c r="J13" s="1">
+        <v>-84.984650000000002</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>93</v>
@@ -2017,10 +2258,10 @@
         <v>94</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -2039,14 +2280,14 @@
       <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>55431</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>44.826575</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>-93.310778</v>
+      <c r="I14" s="1">
+        <v>44.826574999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-93.310777999999999</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>98</v>
@@ -2055,10 +2296,10 @@
         <v>99</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -2080,13 +2321,13 @@
       <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>30060</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>33.927088</v>
-      </c>
-      <c r="J15" s="1" t="n">
+      <c r="I15" s="1">
+        <v>33.927087999999998</v>
+      </c>
+      <c r="J15" s="1">
         <v>-84.541128</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -2096,10 +2337,10 @@
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
@@ -2121,14 +2362,14 @@
       <c r="G16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>77054</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>29.67834</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>-95.409522</v>
+      <c r="I16" s="1">
+        <v>29.678339999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-95.409521999999996</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>108</v>
@@ -2140,7 +2381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -2162,14 +2403,14 @@
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1">
         <v>11021</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>40.785804</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>-73.725505</v>
+      <c r="I17" s="1">
+        <v>40.785803999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-73.725504999999998</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>113</v>
@@ -2178,10 +2419,10 @@
         <v>29</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
@@ -2200,13 +2441,13 @@
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="1">
         <v>27886</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>35.885969</v>
-      </c>
-      <c r="J18" s="1" t="n">
+      <c r="I18" s="1">
+        <v>35.885969000000003</v>
+      </c>
+      <c r="J18" s="1">
         <v>-77.506034</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2216,10 +2457,10 @@
         <v>51</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
@@ -2238,14 +2479,14 @@
       <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1">
         <v>36303</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>31.266985</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>-85.418302</v>
+      <c r="I19" s="1">
+        <v>31.266984999999998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-85.418301999999997</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>121</v>
@@ -2254,10 +2495,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>122</v>
       </c>
@@ -2279,14 +2520,14 @@
       <c r="G20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="1">
         <v>37660</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>36.513444</v>
       </c>
-      <c r="J20" s="1" t="n">
-        <v>-82.553602</v>
+      <c r="J20" s="1">
+        <v>-82.553601999999998</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>126</v>
@@ -2298,7 +2539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>127</v>
       </c>
@@ -2317,14 +2558,14 @@
       <c r="G21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="1">
         <v>21204</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>39.401942</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>-76.632844</v>
+      <c r="I21" s="1">
+        <v>39.401941999999998</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-76.632844000000006</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>130</v>
@@ -2333,10 +2574,10 @@
         <v>94</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -2358,14 +2599,14 @@
       <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="1">
         <v>8051</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>39.786768</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>-75.183872</v>
+      <c r="I22" s="1">
+        <v>39.786768000000002</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-75.183871999999994</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>134</v>
@@ -2374,10 +2615,10 @@
         <v>135</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
@@ -2396,14 +2637,14 @@
       <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="1">
         <v>6105</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <v>41.77607</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>-72.700117</v>
+      <c r="I23" s="1">
+        <v>41.776069999999997</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-72.700117000000006</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>138</v>
@@ -2412,10 +2653,10 @@
         <v>29</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -2434,14 +2675,14 @@
       <c r="G24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="1">
         <v>10965</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>41.061656</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>-74.012633</v>
+      <c r="I24" s="1">
+        <v>41.061655999999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-74.012632999999994</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>142</v>
@@ -2450,10 +2691,10 @@
         <v>143</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
@@ -2472,14 +2713,14 @@
       <c r="G25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="1">
         <v>14424</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>42.830397</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>-77.315064</v>
+      <c r="I25" s="1">
+        <v>42.830396999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-77.315064000000007</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>147</v>
@@ -2488,10 +2729,10 @@
         <v>51</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -2510,14 +2751,14 @@
       <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="1">
         <v>54729</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <v>44.946203</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>-91.40844</v>
+      <c r="I26" s="1">
+        <v>44.946202999999997</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-91.408439999999999</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>151</v>
@@ -2529,7 +2770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>152</v>
       </c>
@@ -2548,14 +2789,14 @@
       <c r="G27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="1">
         <v>8094</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <v>39.639721</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>-74.973074</v>
+      <c r="I27" s="1">
+        <v>39.639721000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-74.973073999999997</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>155</v>
@@ -2564,10 +2805,10 @@
         <v>68</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>139</v>
       </c>
@@ -2589,13 +2830,13 @@
       <c r="G28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="1">
         <v>87505</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <v>35.614824</v>
-      </c>
-      <c r="J28" s="1" t="n">
+      <c r="I28" s="1">
+        <v>35.614823999999999</v>
+      </c>
+      <c r="J28" s="1">
         <v>-105.878783</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -2605,10 +2846,10 @@
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
@@ -2630,14 +2871,14 @@
       <c r="G29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="1">
         <v>28374</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <v>35.202868</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>-79.46094</v>
+      <c r="I29" s="1">
+        <v>35.202868000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-79.460939999999994</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>162</v>
@@ -2646,10 +2887,10 @@
         <v>163</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>164</v>
       </c>
@@ -2671,14 +2912,14 @@
       <c r="G30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="1">
         <v>18951</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <v>40.458938</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>-75.323708</v>
+      <c r="I30" s="1">
+        <v>40.458938000000003</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-75.323707999999996</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>168</v>
@@ -2687,10 +2928,10 @@
         <v>51</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
@@ -2712,14 +2953,14 @@
       <c r="G31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="1">
         <v>34110</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <v>26.299119</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>-81.78955</v>
+      <c r="I31" s="1">
+        <v>26.299119000000001</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-81.789550000000006</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>173</v>
@@ -2728,10 +2969,10 @@
         <v>174</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -2753,14 +2994,14 @@
       <c r="G32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="1">
         <v>45701</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="1">
         <v>39.302498</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <v>-82.07867</v>
+      <c r="J32" s="1">
+        <v>-82.078670000000002</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>89</v>
@@ -2772,7 +3013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>177</v>
       </c>
@@ -2791,13 +3032,13 @@
       <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="1">
         <v>89128</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <v>36.197963</v>
-      </c>
-      <c r="J33" s="1" t="n">
+      <c r="I33" s="1">
+        <v>36.197963000000001</v>
+      </c>
+      <c r="J33" s="1">
         <v>-115.265816</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -2807,10 +3048,10 @@
         <v>181</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>139</v>
       </c>
@@ -2829,14 +3070,14 @@
       <c r="G34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="1">
         <v>27834</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="1">
         <v>35.6631</v>
       </c>
-      <c r="J34" s="1" t="n">
-        <v>-77.369092</v>
+      <c r="J34" s="1">
+        <v>-77.369091999999995</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>184</v>
@@ -2845,10 +3086,10 @@
         <v>185</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>186</v>
       </c>
@@ -2870,13 +3111,13 @@
       <c r="G35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="1">
         <v>84117</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <v>40.660678</v>
-      </c>
-      <c r="J35" s="1" t="n">
+      <c r="I35" s="1">
+        <v>40.660677999999997</v>
+      </c>
+      <c r="J35" s="1">
         <v>-111.833806</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -2886,10 +3127,10 @@
         <v>190</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>191</v>
       </c>
@@ -2911,13 +3152,13 @@
       <c r="G36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="1">
         <v>89141</v>
       </c>
-      <c r="I36" s="1" t="n">
-        <v>35.990387</v>
-      </c>
-      <c r="J36" s="1" t="n">
+      <c r="I36" s="1">
+        <v>35.990386999999998</v>
+      </c>
+      <c r="J36" s="1">
         <v>-115.211564</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -2927,10 +3168,10 @@
         <v>51</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
@@ -2949,14 +3190,14 @@
       <c r="G37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="1">
         <v>40291</v>
       </c>
-      <c r="I37" s="1" t="n">
-        <v>38.131191</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>-85.574576</v>
+      <c r="I37" s="1">
+        <v>38.131191000000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-85.574575999999993</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>199</v>
@@ -2968,7 +3209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -2987,14 +3228,14 @@
       <c r="G38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="1">
         <v>8094</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <v>39.639721</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>-74.973074</v>
+      <c r="I38" s="1">
+        <v>39.639721000000002</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-74.973073999999997</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>155</v>
@@ -3003,10 +3244,10 @@
         <v>68</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>201</v>
       </c>
@@ -3028,14 +3269,14 @@
       <c r="G39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="1">
         <v>37203</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <v>36.150436</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>-86.791327</v>
+      <c r="I39" s="1">
+        <v>36.150435999999999</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-86.791326999999995</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>205</v>
@@ -3044,10 +3285,10 @@
         <v>174</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>206</v>
       </c>
@@ -3069,14 +3310,14 @@
       <c r="G40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="1">
         <v>22302</v>
       </c>
-      <c r="I40" s="1" t="n">
-        <v>38.830715</v>
-      </c>
-      <c r="J40" s="1" t="n">
-        <v>-77.093618</v>
+      <c r="I40" s="1">
+        <v>38.830714999999998</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-77.093618000000006</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>210</v>
@@ -3085,10 +3326,10 @@
         <v>211</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>212</v>
       </c>
@@ -3110,14 +3351,14 @@
       <c r="G41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="1">
         <v>22601</v>
       </c>
-      <c r="I41" s="1" t="n">
-        <v>39.168183</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>-78.169274</v>
+      <c r="I41" s="1">
+        <v>39.168182999999999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-78.169274000000001</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>216</v>
@@ -3126,10 +3367,10 @@
         <v>190</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>217</v>
       </c>
@@ -3148,14 +3389,14 @@
       <c r="G42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="1">
         <v>61820</v>
       </c>
-      <c r="I42" s="1" t="n">
+      <c r="I42" s="1">
         <v>40.113273</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <v>-88.241658</v>
+      <c r="J42" s="1">
+        <v>-88.241658000000001</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>220</v>
@@ -3164,10 +3405,10 @@
         <v>75</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>221</v>
       </c>
@@ -3186,14 +3427,14 @@
       <c r="G43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="1">
         <v>37055</v>
       </c>
-      <c r="I43" s="1" t="n">
-        <v>36.062811</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>-87.430258</v>
+      <c r="I43" s="1">
+        <v>36.062811000000004</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-87.430257999999995</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>224</v>
@@ -3205,7 +3446,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>225</v>
       </c>
@@ -3224,14 +3465,14 @@
       <c r="G44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="1">
         <v>39402</v>
       </c>
-      <c r="I44" s="1" t="n">
-        <v>31.345055</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>-89.412698</v>
+      <c r="I44" s="1">
+        <v>31.345054999999999</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-89.412698000000006</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>228</v>
@@ -3240,10 +3481,10 @@
         <v>143</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>229</v>
       </c>
@@ -3265,14 +3506,14 @@
       <c r="G45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="1">
         <v>77082</v>
       </c>
-      <c r="I45" s="1" t="n">
-        <v>29.722007</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>-95.631891</v>
+      <c r="I45" s="1">
+        <v>29.722007000000001</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-95.631890999999996</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>233</v>
@@ -3281,10 +3522,10 @@
         <v>75</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -3306,14 +3547,14 @@
       <c r="G46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="1">
         <v>37203</v>
       </c>
-      <c r="I46" s="1" t="n">
-        <v>36.150436</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>-86.791327</v>
+      <c r="I46" s="1">
+        <v>36.150435999999999</v>
+      </c>
+      <c r="J46" s="1">
+        <v>-86.791326999999995</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>236</v>
@@ -3322,10 +3563,10 @@
         <v>174</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>237</v>
       </c>
@@ -3347,14 +3588,14 @@
       <c r="G47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="1">
         <v>6105</v>
       </c>
-      <c r="I47" s="1" t="n">
-        <v>41.77607</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>-72.700117</v>
+      <c r="I47" s="1">
+        <v>41.776069999999997</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-72.700117000000006</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>241</v>
@@ -3363,10 +3604,10 @@
         <v>242</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>243</v>
       </c>
@@ -3388,14 +3629,14 @@
       <c r="G48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="1">
         <v>4011</v>
       </c>
-      <c r="I48" s="1" t="n">
-        <v>43.893092</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>-69.97231</v>
+      <c r="I48" s="1">
+        <v>43.893092000000003</v>
+      </c>
+      <c r="J48" s="1">
+        <v>-69.972309999999993</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>247</v>
@@ -3404,10 +3645,10 @@
         <v>94</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>248</v>
       </c>
@@ -3429,14 +3670,14 @@
       <c r="G49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="1">
         <v>63301</v>
       </c>
-      <c r="I49" s="1" t="n">
-        <v>38.856848</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>-90.451614</v>
+      <c r="I49" s="1">
+        <v>38.856847999999999</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-90.451614000000006</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>252</v>
@@ -3448,7 +3689,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>139</v>
       </c>
@@ -3470,13 +3711,13 @@
       <c r="G50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="1">
         <v>30060</v>
       </c>
-      <c r="I50" s="1" t="n">
-        <v>33.927088</v>
-      </c>
-      <c r="J50" s="1" t="n">
+      <c r="I50" s="1">
+        <v>33.927087999999998</v>
+      </c>
+      <c r="J50" s="1">
         <v>-84.541128</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -3486,10 +3727,10 @@
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>254</v>
       </c>
@@ -3508,13 +3749,13 @@
       <c r="G51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="1" t="n">
+      <c r="H51" s="1">
         <v>37664</v>
       </c>
-      <c r="I51" s="1" t="n">
-        <v>36.501079</v>
-      </c>
-      <c r="J51" s="1" t="n">
+      <c r="I51" s="1">
+        <v>36.501078999999997</v>
+      </c>
+      <c r="J51" s="1">
         <v>-82.509546</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -3524,10 +3765,10 @@
         <v>258</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>259</v>
       </c>
@@ -3546,14 +3787,14 @@
       <c r="G52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="1">
         <v>46804</v>
       </c>
-      <c r="I52" s="1" t="n">
-        <v>41.045658</v>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>-85.231907</v>
+      <c r="I52" s="1">
+        <v>41.045658000000003</v>
+      </c>
+      <c r="J52" s="1">
+        <v>-85.231907000000007</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>262</v>
@@ -3562,10 +3803,10 @@
         <v>190</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>263</v>
       </c>
@@ -3584,13 +3825,13 @@
       <c r="G53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="H53" s="1">
         <v>93105</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="1">
         <v>34.56955</v>
       </c>
-      <c r="J53" s="1" t="n">
+      <c r="J53" s="1">
         <v>-119.77258</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -3600,10 +3841,10 @@
         <v>190</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>267</v>
       </c>
@@ -3625,14 +3866,14 @@
       <c r="G54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="1" t="n">
+      <c r="H54" s="1">
         <v>28105</v>
       </c>
-      <c r="I54" s="1" t="n">
-        <v>35.110446</v>
-      </c>
-      <c r="J54" s="1" t="n">
-        <v>-80.708955</v>
+      <c r="I54" s="1">
+        <v>35.110446000000003</v>
+      </c>
+      <c r="J54" s="1">
+        <v>-80.708955000000003</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>270</v>
@@ -3641,10 +3882,10 @@
         <v>174</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>271</v>
       </c>
@@ -3663,13 +3904,13 @@
       <c r="G55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H55" s="1" t="n">
+      <c r="H55" s="1">
         <v>89074</v>
       </c>
-      <c r="I55" s="1" t="n">
-        <v>36.031252</v>
-      </c>
-      <c r="J55" s="1" t="n">
+      <c r="I55" s="1">
+        <v>36.031252000000002</v>
+      </c>
+      <c r="J55" s="1">
         <v>-115.073868</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -3679,10 +3920,10 @@
         <v>68</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
@@ -3701,14 +3942,14 @@
       <c r="G56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="1">
         <v>46804</v>
       </c>
-      <c r="I56" s="1" t="n">
-        <v>41.045658</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>-85.231907</v>
+      <c r="I56" s="1">
+        <v>41.045658000000003</v>
+      </c>
+      <c r="J56" s="1">
+        <v>-85.231907000000007</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>262</v>
@@ -3717,10 +3958,10 @@
         <v>20</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>276</v>
       </c>
@@ -3742,14 +3983,14 @@
       <c r="G57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="1">
         <v>39232</v>
       </c>
-      <c r="I57" s="1" t="n">
-        <v>32.317778</v>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>-90.096954</v>
+      <c r="I57" s="1">
+        <v>32.317777999999997</v>
+      </c>
+      <c r="J57" s="1">
+        <v>-90.096953999999997</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>280</v>
@@ -3761,7 +4002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -3780,14 +4021,14 @@
       <c r="G58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="1">
         <v>37055</v>
       </c>
-      <c r="I58" s="1" t="n">
-        <v>36.062811</v>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>-87.430258</v>
+      <c r="I58" s="1">
+        <v>36.062811000000004</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-87.430257999999995</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>284</v>
@@ -3796,10 +4037,10 @@
         <v>51</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
@@ -3821,14 +4062,14 @@
       <c r="G59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="1" t="n">
+      <c r="H59" s="1">
         <v>2131</v>
       </c>
-      <c r="I59" s="1" t="n">
-        <v>42.283528</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <v>-71.121772</v>
+      <c r="I59" s="1">
+        <v>42.283527999999997</v>
+      </c>
+      <c r="J59" s="1">
+        <v>-71.121772000000007</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>289</v>
@@ -3837,10 +4078,10 @@
         <v>290</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>291</v>
       </c>
@@ -3862,14 +4103,14 @@
       <c r="G60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="1" t="n">
+      <c r="H60" s="1">
         <v>38120</v>
       </c>
-      <c r="I60" s="1" t="n">
-        <v>35.124398</v>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>-89.842308</v>
+      <c r="I60" s="1">
+        <v>35.124397999999999</v>
+      </c>
+      <c r="J60" s="1">
+        <v>-89.842308000000003</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>294</v>
@@ -3878,10 +4119,10 @@
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
@@ -3903,14 +4144,14 @@
       <c r="G61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="1">
         <v>33401</v>
       </c>
-      <c r="I61" s="1" t="n">
-        <v>26.719692</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>-80.069451</v>
+      <c r="I61" s="1">
+        <v>26.719691999999998</v>
+      </c>
+      <c r="J61" s="1">
+        <v>-80.069451000000001</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>298</v>
@@ -3919,10 +4160,10 @@
         <v>299</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -3941,13 +4182,13 @@
       <c r="G62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="1" t="n">
+      <c r="H62" s="1">
         <v>27203</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="I62" s="1">
         <v>35.736995</v>
       </c>
-      <c r="J62" s="1" t="n">
+      <c r="J62" s="1">
         <v>-79.77037</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -3957,10 +4198,10 @@
         <v>135</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>303</v>
       </c>
@@ -3982,14 +4223,14 @@
       <c r="G63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H63" s="1" t="n">
+      <c r="H63" s="1">
         <v>38120</v>
       </c>
-      <c r="I63" s="1" t="n">
-        <v>35.124398</v>
-      </c>
-      <c r="J63" s="1" t="n">
-        <v>-89.842308</v>
+      <c r="I63" s="1">
+        <v>35.124397999999999</v>
+      </c>
+      <c r="J63" s="1">
+        <v>-89.842308000000003</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>306</v>
@@ -4001,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>308</v>
       </c>
@@ -4020,14 +4261,14 @@
       <c r="G64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H64" s="1" t="n">
+      <c r="H64" s="1">
         <v>38134</v>
       </c>
-      <c r="I64" s="1" t="n">
-        <v>35.177129</v>
-      </c>
-      <c r="J64" s="1" t="n">
-        <v>-89.862942</v>
+      <c r="I64" s="1">
+        <v>35.177129000000001</v>
+      </c>
+      <c r="J64" s="1">
+        <v>-89.862942000000004</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>311</v>
@@ -4036,10 +4277,10 @@
         <v>51</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>312</v>
       </c>
@@ -4061,14 +4302,14 @@
       <c r="G65" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="1" t="n">
+      <c r="H65" s="1">
         <v>44236</v>
       </c>
-      <c r="I65" s="1" t="n">
+      <c r="I65" s="1">
         <v>41.244422</v>
       </c>
-      <c r="J65" s="1" t="n">
-        <v>-81.462623</v>
+      <c r="J65" s="1">
+        <v>-81.462622999999994</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>316</v>
@@ -4077,10 +4318,10 @@
         <v>181</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -4099,14 +4340,14 @@
       <c r="G66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="1" t="n">
+      <c r="H66" s="1">
         <v>22601</v>
       </c>
-      <c r="I66" s="1" t="n">
-        <v>39.168183</v>
-      </c>
-      <c r="J66" s="1" t="n">
-        <v>-78.169274</v>
+      <c r="I66" s="1">
+        <v>39.168182999999999</v>
+      </c>
+      <c r="J66" s="1">
+        <v>-78.169274000000001</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>320</v>
@@ -4115,10 +4356,10 @@
         <v>29</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>321</v>
       </c>
@@ -4137,14 +4378,14 @@
       <c r="G67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="1" t="n">
+      <c r="H67" s="1">
         <v>37055</v>
       </c>
-      <c r="I67" s="1" t="n">
-        <v>36.062811</v>
-      </c>
-      <c r="J67" s="1" t="n">
-        <v>-87.430258</v>
+      <c r="I67" s="1">
+        <v>36.062811000000004</v>
+      </c>
+      <c r="J67" s="1">
+        <v>-87.430257999999995</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>284</v>
@@ -4153,10 +4394,10 @@
         <v>323</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>324</v>
       </c>
@@ -4178,14 +4419,14 @@
       <c r="G68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="1" t="n">
+      <c r="H68" s="1">
         <v>11021</v>
       </c>
-      <c r="I68" s="1" t="n">
-        <v>40.785804</v>
-      </c>
-      <c r="J68" s="1" t="n">
-        <v>-73.725505</v>
+      <c r="I68" s="1">
+        <v>40.785803999999999</v>
+      </c>
+      <c r="J68" s="1">
+        <v>-73.725504999999998</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>326</v>
@@ -4194,10 +4435,10 @@
         <v>29</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>327</v>
       </c>
@@ -4216,14 +4457,14 @@
       <c r="G69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="1" t="n">
+      <c r="H69" s="1">
         <v>52101</v>
       </c>
-      <c r="I69" s="1" t="n">
-        <v>43.334647</v>
-      </c>
-      <c r="J69" s="1" t="n">
-        <v>-91.779261</v>
+      <c r="I69" s="1">
+        <v>43.334646999999997</v>
+      </c>
+      <c r="J69" s="1">
+        <v>-91.779261000000005</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>330</v>
@@ -4235,7 +4476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>331</v>
       </c>
@@ -4254,14 +4495,14 @@
       <c r="G70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="1" t="n">
+      <c r="H70" s="1">
         <v>7055</v>
       </c>
-      <c r="I70" s="1" t="n">
-        <v>40.856</v>
-      </c>
-      <c r="J70" s="1" t="n">
-        <v>-74.128157</v>
+      <c r="I70" s="1">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="J70" s="1">
+        <v>-74.128157000000002</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>334</v>
@@ -4270,10 +4511,10 @@
         <v>99</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>335</v>
       </c>
@@ -4295,14 +4536,14 @@
       <c r="G71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="1" t="n">
+      <c r="H71" s="1">
         <v>19046</v>
       </c>
-      <c r="I71" s="1" t="n">
-        <v>40.097875</v>
-      </c>
-      <c r="J71" s="1" t="n">
-        <v>-75.10785</v>
+      <c r="I71" s="1">
+        <v>40.097875000000002</v>
+      </c>
+      <c r="J71" s="1">
+        <v>-75.107849999999999</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>339</v>
@@ -4314,7 +4555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -4333,14 +4574,14 @@
       <c r="G72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H72" s="1" t="n">
+      <c r="H72" s="1">
         <v>54729</v>
       </c>
-      <c r="I72" s="1" t="n">
-        <v>44.946203</v>
-      </c>
-      <c r="J72" s="1" t="n">
-        <v>-91.40844</v>
+      <c r="I72" s="1">
+        <v>44.946202999999997</v>
+      </c>
+      <c r="J72" s="1">
+        <v>-91.408439999999999</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>342</v>
@@ -4349,10 +4590,10 @@
         <v>68</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>343</v>
       </c>
@@ -4374,14 +4615,14 @@
       <c r="G73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="1" t="n">
+      <c r="H73" s="1">
         <v>32209</v>
       </c>
-      <c r="I73" s="1" t="n">
+      <c r="I73" s="1">
         <v>30.362492</v>
       </c>
-      <c r="J73" s="1" t="n">
-        <v>-81.697102</v>
+      <c r="J73" s="1">
+        <v>-81.697102000000001</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>347</v>
@@ -4390,10 +4631,10 @@
         <v>281</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>348</v>
       </c>
@@ -4415,14 +4656,14 @@
       <c r="G74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="1" t="n">
+      <c r="H74" s="1">
         <v>60523</v>
       </c>
-      <c r="I74" s="1" t="n">
-        <v>41.836421</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>-87.952011</v>
+      <c r="I74" s="1">
+        <v>41.836421000000001</v>
+      </c>
+      <c r="J74" s="1">
+        <v>-87.952010999999999</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>351</v>
@@ -4431,10 +4672,10 @@
         <v>99</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>352</v>
       </c>
@@ -4456,14 +4697,14 @@
       <c r="G75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="1" t="n">
+      <c r="H75" s="1">
         <v>3801</v>
       </c>
-      <c r="I75" s="1" t="n">
-        <v>43.067485</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>-70.799837</v>
+      <c r="I75" s="1">
+        <v>43.067484999999998</v>
+      </c>
+      <c r="J75" s="1">
+        <v>-70.799836999999997</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>356</v>
@@ -4472,10 +4713,10 @@
         <v>143</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>357</v>
       </c>
@@ -4492,19 +4733,19 @@
         <v>360</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="1" t="n">
+      <c r="H76" s="1">
         <v>6108</v>
       </c>
-      <c r="I76" s="1" t="n">
-        <v>41.777484</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>-72.621944</v>
+      <c r="I76" s="1">
+        <v>41.777484000000001</v>
+      </c>
+      <c r="J76" s="1">
+        <v>-72.621943999999999</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>241</v>
@@ -4513,10 +4754,10 @@
         <v>242</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>361</v>
       </c>
@@ -4535,13 +4776,13 @@
       <c r="G77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H77" s="1" t="n">
+      <c r="H77" s="1">
         <v>33021</v>
       </c>
-      <c r="I77" s="1" t="n">
+      <c r="I77" s="1">
         <v>26.021514</v>
       </c>
-      <c r="J77" s="1" t="n">
+      <c r="J77" s="1">
         <v>-80.189988</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -4554,7 +4795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>109</v>
       </c>
@@ -4573,14 +4814,14 @@
       <c r="G78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="1">
         <v>37421</v>
       </c>
-      <c r="I78" s="1" t="n">
-        <v>35.02924</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>-85.155118</v>
+      <c r="I78" s="1">
+        <v>35.029240000000001</v>
+      </c>
+      <c r="J78" s="1">
+        <v>-85.155118000000002</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>368</v>
@@ -4589,10 +4830,10 @@
         <v>94</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>369</v>
       </c>
@@ -4614,14 +4855,14 @@
       <c r="G79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="1" t="n">
+      <c r="H79" s="1">
         <v>37203</v>
       </c>
-      <c r="I79" s="1" t="n">
-        <v>36.150436</v>
-      </c>
-      <c r="J79" s="1" t="n">
-        <v>-86.791327</v>
+      <c r="I79" s="1">
+        <v>36.150435999999999</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-86.791326999999995</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>373</v>
@@ -4630,10 +4871,10 @@
         <v>374</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>375</v>
       </c>
@@ -4655,14 +4896,14 @@
       <c r="G80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H80" s="1" t="n">
+      <c r="H80" s="1">
         <v>3801</v>
       </c>
-      <c r="I80" s="1" t="n">
-        <v>43.067485</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>-70.799837</v>
+      <c r="I80" s="1">
+        <v>43.067484999999998</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-70.799836999999997</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>377</v>
@@ -4671,10 +4912,10 @@
         <v>135</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>212</v>
       </c>
@@ -4693,14 +4934,14 @@
       <c r="G81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="1" t="n">
+      <c r="H81" s="1">
         <v>10965</v>
       </c>
-      <c r="I81" s="1" t="n">
-        <v>41.061656</v>
-      </c>
-      <c r="J81" s="1" t="n">
-        <v>-74.012633</v>
+      <c r="I81" s="1">
+        <v>41.061655999999999</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-74.012632999999994</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>142</v>
@@ -4709,10 +4950,10 @@
         <v>143</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>379</v>
       </c>
@@ -4734,14 +4975,14 @@
       <c r="G82" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="1" t="n">
+      <c r="H82" s="1">
         <v>30309</v>
       </c>
-      <c r="I82" s="1" t="n">
-        <v>33.798463</v>
-      </c>
-      <c r="J82" s="1" t="n">
-        <v>-84.388284</v>
+      <c r="I82" s="1">
+        <v>33.798462999999998</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-84.388283999999999</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>383</v>
@@ -4750,10 +4991,10 @@
         <v>384</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -4772,14 +5013,14 @@
       <c r="G83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="1" t="n">
+      <c r="H83" s="1">
         <v>13031</v>
       </c>
-      <c r="I83" s="1" t="n">
-        <v>43.048294</v>
-      </c>
-      <c r="J83" s="1" t="n">
-        <v>-76.296796</v>
+      <c r="I83" s="1">
+        <v>43.048293999999999</v>
+      </c>
+      <c r="J83" s="1">
+        <v>-76.296796000000001</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>388</v>
@@ -4791,7 +5032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -4810,14 +5051,14 @@
       <c r="G84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="1" t="n">
+      <c r="H84" s="1">
         <v>13210</v>
       </c>
-      <c r="I84" s="1" t="n">
-        <v>43.029922</v>
-      </c>
-      <c r="J84" s="1" t="n">
-        <v>-76.126225</v>
+      <c r="I84" s="1">
+        <v>43.029921999999999</v>
+      </c>
+      <c r="J84" s="1">
+        <v>-76.126225000000005</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>391</v>
@@ -4826,10 +5067,10 @@
         <v>392</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>393</v>
       </c>
@@ -4848,14 +5089,14 @@
       <c r="G85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H85" s="1" t="n">
+      <c r="H85" s="1">
         <v>70808</v>
       </c>
-      <c r="I85" s="1" t="n">
-        <v>30.400303</v>
-      </c>
-      <c r="J85" s="1" t="n">
-        <v>-91.144193</v>
+      <c r="I85" s="1">
+        <v>30.400303000000001</v>
+      </c>
+      <c r="J85" s="1">
+        <v>-91.144193000000001</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>396</v>
@@ -4864,10 +5105,10 @@
         <v>163</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>397</v>
       </c>
@@ -4889,14 +5130,14 @@
       <c r="G86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H86" s="1" t="n">
+      <c r="H86" s="1">
         <v>76201</v>
       </c>
-      <c r="I86" s="1" t="n">
-        <v>33.21924</v>
-      </c>
-      <c r="J86" s="1" t="n">
-        <v>-97.149937</v>
+      <c r="I86" s="1">
+        <v>33.219239999999999</v>
+      </c>
+      <c r="J86" s="1">
+        <v>-97.149936999999994</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>401</v>
@@ -4905,10 +5146,10 @@
         <v>68</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>402</v>
       </c>
@@ -4930,14 +5171,14 @@
       <c r="G87" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H87" s="1" t="n">
+      <c r="H87" s="1">
         <v>77429</v>
       </c>
-      <c r="I87" s="1" t="n">
+      <c r="I87" s="1">
         <v>29.985744</v>
       </c>
-      <c r="J87" s="1" t="n">
-        <v>-95.654759</v>
+      <c r="J87" s="1">
+        <v>-95.654758999999999</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>406</v>
@@ -4946,10 +5187,10 @@
         <v>407</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>408</v>
       </c>
@@ -4971,14 +5212,14 @@
       <c r="G88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H88" s="1" t="n">
+      <c r="H88" s="1">
         <v>63128</v>
       </c>
-      <c r="I88" s="1" t="n">
-        <v>38.490417</v>
-      </c>
-      <c r="J88" s="1" t="n">
-        <v>-90.38063</v>
+      <c r="I88" s="1">
+        <v>38.490417000000001</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-90.380629999999996</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>412</v>
@@ -4987,10 +5228,10 @@
         <v>190</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>413</v>
       </c>
@@ -5012,14 +5253,14 @@
       <c r="G89" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H89" s="1" t="n">
+      <c r="H89" s="1">
         <v>40422</v>
       </c>
-      <c r="I89" s="1" t="n">
-        <v>37.634664</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>-84.809398</v>
+      <c r="I89" s="1">
+        <v>37.634664000000001</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-84.809398000000002</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>416</v>
@@ -5028,10 +5269,10 @@
         <v>20</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>417</v>
       </c>
@@ -5050,14 +5291,14 @@
       <c r="G90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H90" s="1" t="n">
+      <c r="H90" s="1">
         <v>7055</v>
       </c>
-      <c r="I90" s="1" t="n">
-        <v>40.856</v>
-      </c>
-      <c r="J90" s="1" t="n">
-        <v>-74.128157</v>
+      <c r="I90" s="1">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="J90" s="1">
+        <v>-74.128157000000002</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>334</v>
@@ -5069,7 +5310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>276</v>
       </c>
@@ -5091,14 +5332,14 @@
       <c r="G91" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H91" s="1" t="n">
+      <c r="H91" s="1">
         <v>77054</v>
       </c>
-      <c r="I91" s="1" t="n">
-        <v>29.67834</v>
-      </c>
-      <c r="J91" s="1" t="n">
-        <v>-95.409522</v>
+      <c r="I91" s="1">
+        <v>29.678339999999999</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-95.409521999999996</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>421</v>
@@ -5107,10 +5348,10 @@
         <v>374</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>422</v>
       </c>
@@ -5129,14 +5370,14 @@
       <c r="G92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="1" t="n">
+      <c r="H92" s="1">
         <v>55021</v>
       </c>
-      <c r="I92" s="1" t="n">
-        <v>44.312828</v>
-      </c>
-      <c r="J92" s="1" t="n">
-        <v>-93.292709</v>
+      <c r="I92" s="1">
+        <v>44.312828000000003</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-93.292709000000002</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>425</v>
@@ -5145,10 +5386,10 @@
         <v>99</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>426</v>
       </c>
@@ -5170,14 +5411,14 @@
       <c r="G93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H93" s="1" t="n">
+      <c r="H93" s="1">
         <v>25302</v>
       </c>
-      <c r="I93" s="1" t="n">
-        <v>38.395168</v>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v>-81.583267</v>
+      <c r="I93" s="1">
+        <v>38.395167999999998</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-81.583267000000006</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>429</v>
@@ -5186,10 +5427,10 @@
         <v>374</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>430</v>
       </c>
@@ -5208,13 +5449,13 @@
       <c r="G94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="1" t="n">
+      <c r="H94" s="1">
         <v>98944</v>
       </c>
-      <c r="I94" s="1" t="n">
-        <v>46.389422</v>
-      </c>
-      <c r="J94" s="1" t="n">
+      <c r="I94" s="1">
+        <v>46.389422000000003</v>
+      </c>
+      <c r="J94" s="1">
         <v>-120.017278</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -5224,10 +5465,10 @@
         <v>374</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>434</v>
       </c>
@@ -5249,14 +5490,14 @@
       <c r="G95" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="1" t="n">
+      <c r="H95" s="1">
         <v>28374</v>
       </c>
-      <c r="I95" s="1" t="n">
-        <v>35.202868</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>-79.46094</v>
+      <c r="I95" s="1">
+        <v>35.202868000000002</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-79.460939999999994</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>162</v>
@@ -5265,10 +5506,10 @@
         <v>163</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
@@ -5287,14 +5528,14 @@
       <c r="G96" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H96" s="1" t="n">
+      <c r="H96" s="1">
         <v>65109</v>
       </c>
-      <c r="I96" s="1" t="n">
-        <v>38.55815</v>
-      </c>
-      <c r="J96" s="1" t="n">
-        <v>-92.283092</v>
+      <c r="I96" s="1">
+        <v>38.558149999999998</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-92.283091999999996</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>438</v>
@@ -5306,7 +5547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>139</v>
       </c>
@@ -5328,14 +5569,14 @@
       <c r="G97" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H97" s="1" t="n">
+      <c r="H97" s="1">
         <v>45701</v>
       </c>
-      <c r="I97" s="1" t="n">
+      <c r="I97" s="1">
         <v>39.302498</v>
       </c>
-      <c r="J97" s="1" t="n">
-        <v>-82.07867</v>
+      <c r="J97" s="1">
+        <v>-82.078670000000002</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>89</v>
@@ -5344,10 +5585,10 @@
         <v>68</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>440</v>
       </c>
@@ -5369,14 +5610,14 @@
       <c r="G98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="1" t="n">
+      <c r="H98" s="1">
         <v>37203</v>
       </c>
-      <c r="I98" s="1" t="n">
-        <v>36.150436</v>
-      </c>
-      <c r="J98" s="1" t="n">
-        <v>-86.791327</v>
+      <c r="I98" s="1">
+        <v>36.150435999999999</v>
+      </c>
+      <c r="J98" s="1">
+        <v>-86.791326999999995</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>444</v>
@@ -5385,10 +5626,10 @@
         <v>374</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>276</v>
       </c>
@@ -5410,14 +5651,14 @@
       <c r="G99" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H99" s="1" t="n">
+      <c r="H99" s="1">
         <v>45373</v>
       </c>
-      <c r="I99" s="1" t="n">
-        <v>40.032571</v>
-      </c>
-      <c r="J99" s="1" t="n">
-        <v>-84.182514</v>
+      <c r="I99" s="1">
+        <v>40.032570999999997</v>
+      </c>
+      <c r="J99" s="1">
+        <v>-84.182513999999998</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>448</v>
@@ -5426,10 +5667,10 @@
         <v>392</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>449</v>
       </c>
@@ -5446,19 +5687,19 @@
         <v>83</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="1" t="n">
+      <c r="H100" s="1">
         <v>30106</v>
       </c>
-      <c r="I100" s="1" t="n">
+      <c r="I100" s="1">
         <v>33.833506</v>
       </c>
-      <c r="J100" s="1" t="n">
-        <v>-84.62475</v>
+      <c r="J100" s="1">
+        <v>-84.624750000000006</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>452</v>
@@ -5467,10 +5708,10 @@
         <v>20</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>453</v>
       </c>
@@ -5489,14 +5730,14 @@
       <c r="G101" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H101" s="1" t="n">
+      <c r="H101" s="1">
         <v>27834</v>
       </c>
-      <c r="I101" s="1" t="n">
+      <c r="I101" s="1">
         <v>35.6631</v>
       </c>
-      <c r="J101" s="1" t="n">
-        <v>-77.369092</v>
+      <c r="J101" s="1">
+        <v>-77.369091999999995</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>184</v>
@@ -5505,21 +5746,19 @@
         <v>281</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M103" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M102" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sortState ref="M1:M103">
+    <sortCondition ref="M61"/>
+  </sortState>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>